--- a/Excel Files/cavity calculation.xlsx
+++ b/Excel Files/cavity calculation.xlsx
@@ -126,7 +126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499374370555742"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,11 +334,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="4" fillId="12" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="12" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -480,7 +480,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill/>
@@ -1057,16 +1056,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="30.26953125" customWidth="1" style="23" min="1" max="1"/>
     <col width="30.08984375" customWidth="1" style="23" min="2" max="2"/>
+    <col width="39.1796875" customWidth="1" style="23" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.5" customHeight="1" s="23">
@@ -1077,9 +1077,15 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1500</t>
-        </is>
-      </c>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="C1" s="21" t="inlineStr">
+        <is>
+          <t>Number of Cavity</t>
+        </is>
+      </c>
+      <c r="D1" s="31" t="n"/>
     </row>
     <row r="2" ht="15.5" customHeight="1" s="23">
       <c r="A2" s="3" t="inlineStr">
@@ -1089,8 +1095,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C2" s="31">
+        <f>INT(B7)</f>
+        <v/>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1142,7 +1152,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1154,6 +1164,12 @@
       </c>
       <c r="B7" s="31">
         <f>'No of Cavity'!B17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="31">
+        <f>B7</f>
         <v/>
       </c>
     </row>
@@ -1186,8 +1202,8 @@
     <col width="8.81640625" customWidth="1" style="21" min="8" max="9"/>
     <col width="13.453125" customWidth="1" style="21" min="10" max="10"/>
     <col width="9.453125" customWidth="1" style="21" min="11" max="13"/>
-    <col width="9" customWidth="1" style="21" min="14" max="17"/>
-    <col width="9" customWidth="1" style="21" min="18" max="16384"/>
+    <col width="9" customWidth="1" style="21" min="14" max="21"/>
+    <col width="9" customWidth="1" style="21" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.15" customHeight="1" s="23">
@@ -1708,7 +1724,7 @@
           <t>Round of cavity( based on No of part)</t>
         </is>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <f>IF(B16&lt;1,1,IF(B16&lt;2,2,IF(B16&lt;4,4,IF(B16&lt;6,6,IF(B16&gt;6,8)))))</f>
         <v/>
       </c>
@@ -1743,7 +1759,7 @@
           <t>No of cavity( As per part length)</t>
         </is>
       </c>
-      <c r="B18" s="35" t="n"/>
+      <c r="B18" s="34" t="n"/>
       <c r="C18" s="8" t="n"/>
       <c r="E18" s="15" t="inlineStr">
         <is>

--- a/Excel Files/cavity calculation.xlsx
+++ b/Excel Files/cavity calculation.xlsx
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="C1" s="21" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" s="31">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
